--- a/806209426/localisation/excel/bramja_DESC_l_german.xlsx
+++ b/806209426/localisation/excel/bramja_DESC_l_german.xlsx
@@ -20,48 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="212">
+  <si>
+    <t xml:space="preserve"> l_german:</t>
+  </si>
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
   <si>
-    <t xml:space="preserve">Leaders</t>
+    <t xml:space="preserve">### Leaders ###</t>
   </si>
   <si>
     <t xml:space="preserve">###</t>
   </si>
   <si>
-    <t xml:space="preserve">POLITICS_CHARLES_LINDBERGH_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Lindbergh\n An American aviator, military officer, author, inventor, and activist. At the age of 25 in 1927, he went from obscurity as a U.S. Air Mail pilot to instantaneous world fame by winning the Orteig Prize for making a nonstop flight from New York to Paris. He opposes not only the intervention of the United States, but also the provision of aid to the United Kingdom. He is a leading figure in the anti-war America First Committee, which stands for the isolationism he campaigns for.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITICS_DOUGLAS_MACARTHUR_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General and now president of the USA, represents to some a beacon of strength, to others the corrupting influence of the military over politics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITICS_REZA_SHAH_PAHLAVI_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shah of Iran since 15 December 1925, when he was appointed as the legal monarch of Iran by decision of Persia's Majlis (constituent assembly), ending the rule of the then already exiled Ahmad Shah and the Qajar Dynasty. Before this he had already been the real power in Persia since the 1921 coup d'état by the Persian Cossack Brigade which he led (supported by the British), being Sardar Sepah (commander in chief of the army), minister of war and later also prime minister.\n Inspired Atatürks Turkey, Reza Shah has introduced many social, economic, and political reforms; amongst which are the modernising of infrastructure and the military, policies of detribalization, sedentarization and Persianization, he has laid a foundation for a modern Iranian state.\n However the future of this state and the Shahs rule are bound to be rocky, as the balance of power in the region and the world at large is shifting. Will the Shah be able to keep playing the foreign powers against each other to maintains Iran's freedom?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITICS_REZA_SHAH_PAHLAVI_DESC_prisoner:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reza Shah has officially been restored as the ruler of Iran now that the Sovoiets and British have been driven out of the country. However the British have as a consequence imprisoned the reinstated Shah as he had been in exile under their supervision. The new benefactors of the Iranian State will have to make haste to locate and free the Shah if they wish to stabilize the country and legitimize the new order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITICS_REZA_SHAH_PAHLAVI_DESC_freed:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reza Shah once again properly rules his country from the \"§YTakht-e Khurshīd§!\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(the</t>
+    <t xml:space="preserve"> POLITICS_CHARLES_LINDBERGH_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Lindbergh\n Ein amerikanischer Flieger, Militäroffizier, Autor, Erfinder und Aktivist. Im Alter von 25 Jahren wurde er 1927 als Pilot der U.S. Air Mail weltberühmt, als er den Orteig-Preis für seinen Nonstop-Flug von New York nach Paris gewann. Er wendet sich nicht nur gegen die Intervention der Vereinigten Staaten, sondern auch gegen die Gewährung von Hilfe an das Vereinigte Königreich. Er ist eine führende Persönlichkeit des Antikriegs-Komitees America First, das für den von ihm propagierten Isolationismus steht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_DOUGLAS_MACARTHUR_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der General und heutige Präsident der USA ist für die einen ein Leuchtturm der Stärke, für die anderen der korrumpierende Einfluss des Militärs auf die Politik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REZA_SHAH_PAHLAVI_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schah von Iran seit dem 15. Dezember 1925, als er durch einen Beschluss des persischen Parlaments (Majlis) zum legalen Monarchen von Iran ernannt wurde und damit die Herrschaft des damals bereits im Exil lebenden Ahmad Schah und der Qajar-Dynastie beendete. Zuvor war er bereits seit dem Staatsstreich der (von den Briten unterstützten) persischen Kosakenbrigade von 1921 als Sardar Sepah (Oberbefehlshaber der Armee), Kriegsminister und später auch Premierminister die eigentliche Macht in Persien. \n Nach dem Vorbild von Atatürks Türkei hat Reza Schah viele soziale, wirtschaftliche und politische Reformen eingeleitet, darunter die Modernisierung der Infrastruktur und des Militärs, eine Politik der Entstammung, Sesshaftmachung und Persianisierung, und damit den Grundstein für einen modernen iranischen Staat gelegt.\n Die Zukunft dieses Staates und der Herrschaft des Schahs ist jedoch ungewiss, da sich das Machtgleichgewicht in der Region und in der Welt insgesamt verschiebt. Wird der Schah in der Lage sein, die ausländischen Mächte weiterhin gegeneinander auszuspielen, um die Freiheit des Irans zu bewahren? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REZA_SHAH_PAHLAVI_DESC_prisoner:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem die Sowjets und die Briten aus dem Land vertrieben wurden, ist Reza Schah offiziell wieder als Herrscher des Iran eingesetzt worden. Allerdings haben die Briten den wiedereingesetzten Schah inhaftiert, da er unter ihrer Aufsicht im Exil gelebt hatte. Die neuen Wohltäter des iranischen Staates werden sich beeilen müssen, den Schah ausfindig zu machen und zu befreien, wenn sie das Land stabilisieren und die neue Ordnung legitimieren wollen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLITICS_REZA_SHAH_PAHLAVI_DESC_freed:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reza Schah regiert sein Land wieder ordnungsgemäß vom \"§Y§Y Takht-e Khurshīd §!§! \" (dem persischen Sonnenthron), nachdem er aus seiner Gefangenschaft befreit wurde. Die Frage ist nun, ob er den Iran als freie Nation erhalten kann...</t>
   </si>
   <si>
     <t xml:space="preserve">Persian</t>
@@ -127,49 +127,43 @@
     <t xml:space="preserve">nation..."</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohammed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">her:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portrait_Mohammad_Reza_Pahlavi.dds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">political_prisoner:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imprisoned by the enemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">political_prisoner_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I need a hero to come and save me...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opertions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescue_Reza_Shah:0</t>
+    <t xml:space="preserve">#!!!Portrait Mohammed her: Portrait_Mohammad_Reza_Pahlavi.dds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sie:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### Leader traits ###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eigenschaften</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> political_prisoner:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefangen vom Feind</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> political_prisoner_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich brauche einen Helden, der kommt und mich rettet...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### Opertions ###</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescue_Reza_Shah:0</t>
   </si>
   <si>
     <t xml:space="preserve">Operation Zoroaster</t>
   </si>
   <si>
-    <t xml:space="preserve">rescue_Reza_Shah_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§LAs part of the [ENG.GetFactionName] occupation of [Per.GetName], Reza Shah had to abdicate in favour of his more pliant son. Consequently Reza Shah had to go in \"supervised\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exile,</t>
+    <t xml:space="preserve"> rescue_Reza_Shah_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Als Teil der [ENG.GetFactionName]-Besetzung von [Per.GetName] musste Reza Shah zugunsten seines gefügigeren Sohnes abdanken. Infolgedessen musste Reza Schah ins "überwachte" Exil gehen, das sich jedoch in eine regelrechte Gefangenschaft verwandelte, als wir Persien von kommunistischer und kapitalistischer Unterdrückung befreiten. In dem Bemühen, das Land zu stabilisieren und seine Bevölkerung und Führung für unsere Sache zu gewinnen, versprachen wir, Reza Pahlavi zu befreien und wieder einzusetzen. Jetzt, da wir den Ort ausfindig gemacht haben, an dem er wahrscheinlich festgehalten wird, sollten wir schnellstmöglich eine Rettungsaktion starten! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve">however</t>
@@ -316,49 +310,46 @@
     <t xml:space="preserve">haste!§!"</t>
   </si>
   <si>
-    <t xml:space="preserve">rescue_Reza_Shah_infiltration:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropping the special forces near the prison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescue_Reza_Shah_infiltration_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An elite special force unit will be dropped off near the compound where our intelligence service indicates Reza Pahlavi is held.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescue_Reza_Shah_attack:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerial raid of the area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescue_Reza_Shah_attack_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An aerial raid will be launched in the area, as to distract the the Shahs guards. In the meanwhile our operatives will attempt to infiltrate the compound and free the target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescue_Reza_Shah_exfiltration:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extraction via airplane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescue_Reza_Shah_exfiltration_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reza Shah and the team will picked up by plane on a designated location nearby, which should then return them to a friendly airfield.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#!!!Relation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modifer,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add?</t>
+    <t xml:space="preserve"> rescue_Reza_Shah_infiltration:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absetzen der Spezialeinheiten in der Nähe des Gefängnisses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescue_Reza_Shah_infiltration_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Eliteeinheit von Spezialkräften wird in der Nähe des Geländes abgesetzt, in dem Reza Pahlavi laut unserem Geheimdienst festgehalten wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescue_Reza_Shah_attack:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftangriff auf das Gebiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescue_Reza_Shah_attack_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es wird ein Luftangriff auf das Gebiet gestartet, um die Wachen des Schahs abzulenken. In der Zwischenzeit werden unsere Agenten versuchen, das Gelände zu infiltrieren und die Zielperson zu befreien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescue_Reza_Shah_exfiltration:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abzug per Flugzeug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescue_Reza_Shah_exfiltration_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reza Shah und das Team werden an einem bestimmten Ort in der Nähe mit einem Flugzeug abgeholt, das sie zu einem befreundeten Flugplatz bringen soll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #!!!Relation modifer, add? GER_rescued_mussolini:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Geretteter Mussolini"!!!</t>
   </si>
   <si>
     <t xml:space="preserve">GER_rescued_mussolini:0</t>
@@ -370,208 +361,223 @@
     <t xml:space="preserve">Mussolini"!!!</t>
   </si>
   <si>
-    <t xml:space="preserve">rescue_Reza_Shah_outcome_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will attempt to liberate Reza Shah. The attempt is not without risk though...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCK_qing_restored:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchu Restorationist Clique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Countries#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_greater_german_reich_fascism:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater German Reich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_greater_german_reich_fascism_DEF:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Greater German Reich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American_League:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The American League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistance#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Tooltips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_peace_with_Finland:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make peace with the Finns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_peace_with_Finland_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As Eastern Europe has been divided and carved up between us and the Soviets, the Finns are left as one of the few nations that continue to resist this new order. Without any hope for significant foreign support anytime soon and the Soviets looking eagerly to their borderlands, continuing the war has little benefit for either side. Perhaps they can still prove usefull to us in the future too...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bramja_FIN_GER_Peace_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland will very likely accept our offer, however you never know with these wonky Northerners...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Gau_Silesia_Kattowitz:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate Kattowitz into the Gau Oberschlesien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Gau_Silesia_Kattowitz_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now that the calm has returned to the region, we shall integrate Kattowitz into the administration of the newly established Gau Oberschlesien (resulting from the division of the Gau Schlesien). Once resistance has been surpressed entirely and proper German ways have been reestablished, it will be a full, integral part of the Reich once more!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Integrate_Kattowitz:0</t>
+    <t xml:space="preserve"> rescue_Reza_Shah_outcome_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir werden versuchen, Reza Shah zu befreien. Der Versuch ist jedoch nicht ohne Risiko...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Parties#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Parteien# "#Parteien#"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCK_qing_restored:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandschu-Restaurationisten-Clique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Countries#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Länder# " #Länder#"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_greater_german_reich_fascism:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Großes Deutsches Reich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_greater_german_reich_fascism_DEF:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Großdeutsche Reich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Factions#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Fakten# "#Fakten#"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American_League:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Amerikanische Liga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Tooltips resistance#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Tooltips Widerstand# "#Tooltips Widerstand#"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Tooltips Decisions added#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entscheidungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_peace_with_Finland:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schließen Sie Frieden mit den Finnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_peace_with_Finland_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach der Aufteilung Osteuropas zwischen uns und den Sowjets bleiben die Finnen als eine der wenigen Nationen übrig, die sich dieser neuen Ordnung weiterhin widersetzen. Ohne Hoffnung auf nennenswerte ausländische Unterstützung in absehbarer Zeit und ohne dass die Sowjets eifrig nach ihren Grenzgebieten Ausschau halten, hat die Fortsetzung des Krieges für beide Seiten wenig Vorteile. Vielleicht können sie sich auch für uns in Zukunft noch als nützlich erweisen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bramja_FIN_GER_Peace_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnland wird unser Angebot höchstwahrscheinlich annehmen, aber bei diesen eigenwilligen Nordländern kann man nie wissen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Gau_Silesia_Kattowitz:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kattowitz in den Gau Oberschlesien eingliedern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Gau_Silesia_Kattowitz_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem nun wieder Ruhe in der Region eingekehrt ist, werden wir Kattowitz in die Verwaltung des neu gegründeten Gaues Oberschlesien (entstanden aus der Teilung des Gaues Schlesien) integrieren. Sobald der Widerstand vollständig niedergeschlagen ist und die deutschen Verhältnisse wieder hergestellt sind, wird es wieder ein vollwertiger Bestandteil des Reiches sein!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Integrate_Kattowitz:0</t>
   </si>
   <si>
     <t xml:space="preserve">Heim ins Reich: Oberschlesien</t>
   </si>
   <si>
-    <t xml:space="preserve">GER_Integrate_Kattowitz_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Most resistance has been supressed and German administration, education, etc. are fully reestablished. Willkommen daheim Kattowitz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Gau_Silesia_Teschen:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate Teschen into the Gau Oberschlesien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Gau_Silesia_Teschen_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since its separation from Österreich, the former Duchy of Teschen has seen its fair share of conflict, with Czechs and Poles contesting the others control over the region. It became even clearer the last few year that Teschener Schlesien needed to return to Germanien to find prosperity once more. Today is that day!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Integrate_Teschen:0</t>
+    <t xml:space="preserve"> GER_Integrate_Kattowitz_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der größte Teil des Widerstandes ist unterdrückt und die deutsche Verwaltung, das Bildungswesen usw. sind vollständig wiederhergestellt. Willkommen daheim in Kattowitz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Gau_Silesia_Teschen:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingliederung von Teschen in den Gau Oberschlesien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Gau_Silesia_Teschen_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit der Abtrennung von Österreich hat das ehemalige Herzogtum Teschen eine Reihe von Konflikten erlebt, bei denen Tschechen und Polen einander die Kontrolle über die Region streitig machten. In den letzten Jahren wurde immer deutlicher, dass das Teschener Schlesien nach Germanien zurückkehren muss, um wieder zu Wohlstand zu kommen. Heute ist dieser Tag gekommen! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Integrate_Teschen:0</t>
   </si>
   <si>
     <t xml:space="preserve">Heim ins Reich: Teschener Schlesien</t>
   </si>
   <si>
-    <t xml:space="preserve">GER_Integrate_Teschen_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Though it proved more challenging than in most reconquered German lands, Teschen and its surrounding territory has been fully reintregrated! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Claim_Slovenia:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Germanizing Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Claim_Slovenia_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now that the former Austrian territory of Slovenia has become part of the [Root.GetNameDef] once again, we should start the pacification of the region to prepare it for full integration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_Integrate_Slovenia:0</t>
+    <t xml:space="preserve"> GER_Integrate_Teschen_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obwohl es schwieriger war als in den meisten zurückeroberten deutschen Gebieten, ist Teschen und sein Umland vollständig wieder eingegliedert worden! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Claim_Slovenia:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginn der Germanisierung Sloweniens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Claim_Slovenia_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetzt, wo das ehemalige österreichische Territorium Slowenien wieder Teil des [Root.GetNameDef] geworden ist, sollten wir mit der Befriedung der Region beginnen, um sie auf die vollständige Integration vorzubereiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_Integrate_Slovenia:0</t>
   </si>
   <si>
     <t xml:space="preserve">Heim ins Reich: Krain</t>
   </si>
   <si>
-    <t xml:space="preserve">GER_Integrate_Slovenia_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another piece of the stained legacy of the Great War has been washed away, the Krain has been properly pacified and is ready to become a full part of the 3rd and final Reich!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_support_reichskommissariats:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support [From.GetNameDef]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_support_reichskommissariats_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need to establish total domination over our rightfull conquests in the East to secure the Reichs future! We shall send the required equipment for the forces of the Reichkommissar [FROM.GetLeader] to ensure all resistance is eradicated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_peace_with_Iran:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Tehran Dictate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_peace_with_Iran_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impose our will on the Persians:	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bramja_Per_buffer_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§W 1.Persia will be designated as a buffer state, \n 2. With us guaranteeing their independence but other than that leaving Persia politically and military independent (for now...), as the region marks the limits of where our influence can reach, as per agreements made with our co-belligerents in the East. \n 3. We will however make sure they cut any ties, be it political or economical, with their former oppressors. Furthermore [From.GetNameDef] will assert exclusive rights to the Persian oil reserves. §! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bramja_Per_countenanced_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§L The occupation by the Soviets and Brittish has caused much suffering in Persia and left it without proper leadership as Shah Reza Pahlavi was forced to abdicate in favour of his pro-British son Mohammad. During the chaos various forces propagating opposing ideologies had the chance to increase their power,§! §O further destabilizing the country, making it a hotbed for rampant unrest.§! \n§H To stabilize the region and guarantee the stream of oil, our best option is installing Reza Pahlavi as Shah once more, given his legitmacy, aura of independence and his (somewhat) proven pro-[ROOT.GetFactionName] credentials. §!\n §R However given Reza Pahlavi's current imprisonment by the Brits,§! §W we must start planning a rescue operation,§!§R if he doesn't return to his throne soon, the country will be thrown in total chaos. §!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bramja_Per_oil_rights_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n§WThe treay will give us the sole ownership over the Hormozgan oil reserves, however if we also have §!§M unchallenged control over the Straits of Hormuz, the Gulf of Aden and the Suez Canal,§!§G we and our strongest ally will also be able to assert exclusive rights to the oil fields in Khuzestan and Fars. §! \n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_at_end_of_world_SAF:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brethren at Worlds End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_at_end_of_world_SAF_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§LThe South African Army and nation have suffered unsustainable casualties during the [ROOT.GetFactionName] conquest of Afrika, which is now at their doorstep...\n\nThe ongoing war between us and our fellow Germanic people in South Afrika is most unnatural and was never popular amongst the South African population, let alone the Afrikaners. The [SAF.GetAdjective] ruling class, decimated and facing our imminent invasion of their homelands, should be more than ever ready to finally accept our fatherly protection.\nMoreover coopting the Afrikaners will nullify many problems direct rule from far away [Root.Capital.GetName] would imply...§!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions_GER_at_end_of_world_SAF_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To send a credible ultimatum, two conditions must be fulfilled:\n  -South Africa has lost more than 130,000 men or implemented conscription for all adults.\n  -The [ROOT.GetFactionName] must have begun to occupy territory south of the Belgian Congo or Tanganyika.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_at_end_of_world_SAF_tt:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§LAfrikaner Nationalists are reaching out to us as of late, their messages stressing that their country is ripe for realignment to our cause... They know very well by now it is their last option to keep their current way of life and societal positions in tact.§! \n\n§O Even this prospect however might not dissuade pro-[SAF.GetFactionName] groups led by [SAF.GetLeader] though, stubbornly not wanting to see reason.§!\n§GEven if this were to pass, forces gathered by the \"Gryshemde\", \"Gesuiwerde Nasionale Party\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or</t>
+    <t xml:space="preserve"> GER_Integrate_Slovenia_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein weiteres Stück der befleckten Hinterlassenschaft des Großen Krieges ist beseitigt, das Krain wurde ordnungsgemäß befriedet und ist bereit, ein vollständiger Teil des 3. und letzten Reiches zu werden!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_support_reichskommissariats:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterstützung [From.GetNameDef]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_support_reichskommissariats_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir müssen die totale Herrschaft über unsere rechtmäßigen Eroberungen im Osten errichten, um die Zukunft des Reiches zu sichern! Wir werden die erforderliche Ausrüstung für die Truppen des Reichskommissars [FROM.GetLeader] schicken, um sicherzustellen, dass jeder Widerstand ausgerottet wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_peace_with_Iran:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Teheraner Diktat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_peace_with_Iran_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwingt den Persern unseren Willen auf: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bramja_Per_buffer_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§W§W 1.Persien wird zu einem Pufferstaat erklärt, \n 2. Wir garantieren seine Unabhängigkeit, lassen Persien aber ansonsten politisch und militärisch unabhängig (vorerst...), da die Region die Grenzen unseres Einflusses gemäß den mit unseren Mitkriegsparteien im Osten getroffenen Vereinbarungen markiert. \n 3. Wir werden jedoch dafür sorgen, dass sie jede Verbindung zu ihren früheren Unterdrückern kappen, sei es politisch oder wirtschaftlich. Außerdem wird [From.GetNameDef] die Exklusivrechte an den persischen Ölreserven geltend machen.  §!§!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bramja_Per_countenanced_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n§L§L Die Besetzung durch die Sowjets und die Briten hat in Persien viel Leid verursacht und das Land ohne richtige Führung zurückgelassen, da Schah Reza Pahlavi gezwungen war, zugunsten seines pro-britischen Sohnes Mohammad abzudanken. Während des Chaos hatten verschiedene Kräfte, die gegensätzliche Ideologien propagierten, die Möglichkeit, ihre Macht auszubauen, §!§!  §O§O das Land weiter zu destabilisieren und es zu einer Brutstätte wütender Unruhen zu machen. §!§!  \n§H§H Um die Region zu stabilisieren und den Ölfluss zu gewährleisten, ist es die beste Option, Reza Pahlavi erneut als Schah einzusetzen, da er legitimiert ist, eine Aura der Unabhängigkeit ausstrahlt und sich (in gewisser Weise) als Befürworter von [ROOT.GetFactionName] ausweist.  §!§! \n §R§R Da Reza Pahlavi jedoch derzeit von den Briten inhaftiert ist, §!§!  §W§W müssen wir mit der Planung einer Rettungsaktion beginnen, §!§! §R§R wenn er nicht bald auf seinen Thron zurückkehrt, wird das Land in ein totales Chaos gestürzt.  §!§! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bramja_Per_oil_rights_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n§W§W Der Thron wird uns das alleinige Eigentum an den Ölreserven von Hormozgan geben, aber wenn wir auch §!§! §M§M unangefochtene Kontrolle über die Straße von Hormuz, den Golf von Aden und den Suezkanal haben, §!§! §G§G werden wir und unser stärkster Verbündeter auch die Exklusivrechte an den Ölfeldern in Khuzestan und Fars geltend machen können.  §!§!  \n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_at_end_of_world_SAF:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brüder am Ende der Welt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_at_end_of_world_SAF_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Die südafrikanische Armee und Nation haben während der Eroberung Afrikas durch [ROOT.GetFactionName], die nun vor ihrer Tür steht, unerträgliche Verluste erlitten...\n\nDer andauernde Krieg zwischen uns und unseren germanischen Mitbürgern in Südafrika ist höchst unnatürlich und war in der südafrikanischen Bevölkerung nie beliebt, geschweige denn bei den Afrikanern. Die [SAF.GetAdjective] herrschende Klasse, dezimiert und mit unserer bevorstehenden Invasion ihrer Heimat konfrontiert, sollte mehr denn je bereit sein, endlich unseren väterlichen Schutz zu akzeptieren.\nDarüber hinaus wird die Kooptierung der Afrikaner viele Probleme zunichte machen, die eine direkte Herrschaft aus der Ferne [Root.Capital.GetName] mit sich bringen würde... §!§! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conditions_GER_at_end_of_world_SAF_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um ein glaubwürdiges Ultimatum zu stellen, müssen zwei Bedingungen erfüllt sein:\n -Südafrika hat mehr als 130.000 Männer verloren oder die Wehrpflicht für alle Erwachsenen eingeführt.\n -Die [ROOT.GetFactionName] muss begonnen haben, Gebiete südlich von Belgisch-Kongo oder Tanganjika zu besetzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_at_end_of_world_SAF_tt:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§Afrikanische Nationalisten wenden sich in letzter Zeit an uns und betonen in ihren Botschaften, dass ihr Land reif für eine Neuausrichtung auf unsere Sache ist... Sie wissen inzwischen sehr gut, dass dies ihre letzte Möglichkeit ist, ihre derzeitige Lebensweise und gesellschaftliche Stellung zu erhalten. §!§!  \n\n§O§O Selbst diese Aussicht könnte die von [SAF.GetFactionName] angeführten Pro-[SAF.GetLeader]-Gruppen jedoch nicht davon abhalten, hartnäckig nicht zur Vernunft kommen zu wollen. §!§! \n§G§G Selbst wenn dies geschehen sollte, werden die von der \"Gryshemde\", \"Gesuiwerde Nasionale Party\" oder von \"Oswald Pirow\" versammelten Kräfte wild entschlossen sein, die Zügel der Regierung in die Hand zu nehmen, und zwar mit allen Mitteln, um dieses Ergebnis zu verhindern. §!§! \n§M§M Unsere Unterstützung sollte ein günstiges Ergebnis sicherstellen... §!§! \n </t>
   </si>
   <si>
     <t xml:space="preserve">by</t>
@@ -638,16 +644,19 @@
  SOV_refugees_and_refugees:0	"Attract Soviet refugees, deserters &amp; expertise</t>
   </si>
   <si>
-    <t xml:space="preserve">SOV_refugees_and_refugees_desc:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SOV.GetNameDef] is in a dire state, after facing the onslaught of the [GER.GetAdjective] invasion and loss of their Western territories, they now face constant German bombing raids and a general state of confusion. We can make use of this situation to launch a call for the growing amounts refugees and deserters to join us and settle here...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#they</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hand</t>
+    <t xml:space="preserve"> SOV_refugees_and_refugees:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sowjetische Flüchtlinge, Deserteure und Experten anlocken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOV_refugees_and_refugees_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die [SOV.GetNameDef] befindet sich in einer katastrophalen Lage: Nach dem Ansturm der [GER.GetAdjective] Invasion und dem Verlust ihrer westlichen Gebiete sind sie nun mit ständigen deutschen Bombenangriffen und einem allgemeinen Zustand der Verwirrung konfrontiert. Wir können diese Situation nutzen, um einen Aufruf an die wachsende Zahl von Flüchtlingen und Deserteuren zu starten, sich uns anzuschließen und sich hier niederzulassen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #they hand over control over economic policy and oil reserves to us, while leaving them politically mostly independent. They will serve as good buffer state, and as a buffer our oil supplies. We will even be so gracious as to protect them from any attack!</t>
   </si>
 </sst>
 </file>
@@ -871,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:BN499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D82" activeCellId="0" sqref="D1:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="str">
         <f aca="false">IF(ISBLANK(A1),"",C1)</f>
@@ -899,140 +908,129 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="str">
-        <f aca="false">A2 &amp;" " &amp;"""" &amp;A2 &amp;""""</f>
-        <v> ""</v>
-      </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> " """</v>
+        <v> ""</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A2),"",B2)</f>
+        <f aca="false">IF(ISBLANK(A2),"",C2)</f>
         <v/>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="str">
-        <f aca="false">A3 &amp;" " &amp;"""" &amp;A3 &amp;""""</f>
-        <v> ""</v>
-      </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> " """</v>
+        <v> ""</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A3),"",B3)</f>
+        <f aca="false">IF(ISBLANK(A3),"",C3)</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v>Leaders "###"</v>
+        <v>### Leaders ### "###"</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A4),"",B4)</f>
-        <v>###</v>
+        <f aca="false">IF(ISBLANK(A4),"",C4)</f>
+        <v>### Leaders ### "###"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="str">
-        <f aca="false">A5 &amp;" " &amp;"""" &amp;A5 &amp;""""</f>
-        <v> ""</v>
-      </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> " """</v>
+        <v> ""</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A5),"",B5)</f>
+        <f aca="false">IF(ISBLANK(A5),"",C5)</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v>POLITICS_CHARLES_LINDBERGH_DESC:0 "Charles Lindbergh\n An American aviator, military officer, author, inventor, and activist. At the age of 25 in 1927, he went from obscurity as a U.S. Air Mail pilot to instantaneous world fame by winning the Orteig Prize for making a nonstop flight from New York to Paris. He opposes not only the intervention of the United States, but also the provision of aid to the United Kingdom. He is a leading figure in the anti-war America First Committee, which stands for the isolationism he campaigns for."</v>
+        <v> POLITICS_CHARLES_LINDBERGH_DESC:0 "Charles Lindbergh\n Ein amerikanischer Flieger, Militäroffizier, Autor, Erfinder und Aktivist. Im Alter von 25 Jahren wurde er 1927 als Pilot der U.S. Air Mail weltberühmt, als er den Orteig-Preis für seinen Nonstop-Flug von New York nach Paris gewann. Er wendet sich nicht nur gegen die Intervention der Vereinigten Staaten, sondern auch gegen die Gewährung von Hilfe an das Vereinigte Königreich. Er ist eine führende Persönlichkeit des Antikriegs-Komitees America First, das für den von ihm propagierten Isolationismus steht."</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A6),"",B6)</f>
-        <v>Charles Lindbergh\n An American aviator, military officer, author, inventor, and activist. At the age of 25 in 1927, he went from obscurity as a U.S. Air Mail pilot to instantaneous world fame by winning the Orteig Prize for making a nonstop flight from New York to Paris. He opposes not only the intervention of the United States, but also the provision of aid to the United Kingdom. He is a leading figure in the anti-war America First Committee, which stands for the isolationism he campaigns for.</v>
+        <f aca="false">IF(ISBLANK(A6),"",C6)</f>
+        <v> POLITICS_CHARLES_LINDBERGH_DESC:0 "Charles Lindbergh\n Ein amerikanischer Flieger, Militäroffizier, Autor, Erfinder und Aktivist. Im Alter von 25 Jahren wurde er 1927 als Pilot der U.S. Air Mail weltberühmt, als er den Orteig-Preis für seinen Nonstop-Flug von New York nach Paris gewann. Er wendet sich nicht nur gegen die Intervention der Vereinigten Staaten, sondern auch gegen die Gewährung von Hilfe an das Vereinigte Königreich. Er ist eine führende Persönlichkeit des Antikriegs-Komitees America First, das für den von ihm propagierten Isolationismus steht."</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v>POLITICS_DOUGLAS_MACARTHUR_DESC:0 "General and now president of the USA, represents to some a beacon of strength, to others the corrupting influence of the military over politics."</v>
+        <v> POLITICS_DOUGLAS_MACARTHUR_DESC:0 "Der General und heutige Präsident der USA ist für die einen ein Leuchtturm der Stärke, für die anderen der korrumpierende Einfluss des Militärs auf die Politik."</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A7),"",B7)</f>
-        <v>General and now president of the USA, represents to some a beacon of strength, to others the corrupting influence of the military over politics.</v>
+        <f aca="false">IF(ISBLANK(A7),"",C7)</f>
+        <v> POLITICS_DOUGLAS_MACARTHUR_DESC:0 "Der General und heutige Präsident der USA ist für die einen ein Leuchtturm der Stärke, für die anderen der korrumpierende Einfluss des Militärs auf die Politik."</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v>POLITICS_REZA_SHAH_PAHLAVI_DESC:0 "Shah of Iran since 15 December 1925, when he was appointed as the legal monarch of Iran by decision of Persia's Majlis (constituent assembly), ending the rule of the then already exiled Ahmad Shah and the Qajar Dynasty. Before this he had already been the real power in Persia since the 1921 coup d'état by the Persian Cossack Brigade which he led (supported by the British), being Sardar Sepah (commander in chief of the army), minister of war and later also prime minister.\n Inspired Atatürks Turkey, Reza Shah has introduced many social, economic, and political reforms; amongst which are the modernising of infrastructure and the military, policies of detribalization, sedentarization and Persianization, he has laid a foundation for a modern Iranian state.\n However the future of this state and the Shahs rule are bound to be rocky, as the balance of power in the region and the world at large is shifting. Will the Shah be able to keep playing the foreign powers against each other to maintains Iran's freedom?"</v>
+        <v> POLITICS_REZA_SHAH_PAHLAVI_DESC:0 "Schah von Iran seit dem 15. Dezember 1925, als er durch einen Beschluss des persischen Parlaments (Majlis) zum legalen Monarchen von Iran ernannt wurde und damit die Herrschaft des damals bereits im Exil lebenden Ahmad Schah und der Qajar-Dynastie beendete. Zuvor war er bereits seit dem Staatsstreich der (von den Briten unterstützten) persischen Kosakenbrigade von 1921 als Sardar Sepah (Oberbefehlshaber der Armee), Kriegsminister und später auch Premierminister die eigentliche Macht in Persien. \n Nach dem Vorbild von Atatürks Türkei hat Reza Schah viele soziale, wirtschaftliche und politische Reformen eingeleitet, darunter die Modernisierung der Infrastruktur und des Militärs, eine Politik der Entstammung, Sesshaftmachung und Persianisierung, und damit den Grundstein für einen modernen iranischen Staat gelegt.\n Die Zukunft dieses Staates und der Herrschaft des Schahs ist jedoch ungewiss, da sich das Machtgleichgewicht in der Region und in der Welt insgesamt verschiebt. Wird der Schah in der Lage sein, die ausländischen Mächte weiterhin gegeneinander auszuspielen, um die Freiheit des Irans zu bewahren? "</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A8),"",B8)</f>
-        <v>Shah of Iran since 15 December 1925, when he was appointed as the legal monarch of Iran by decision of Persia's Majlis (constituent assembly), ending the rule of the then already exiled Ahmad Shah and the Qajar Dynasty. Before this he had already been the real power in Persia since the 1921 coup d'état by the Persian Cossack Brigade which he led (supported by the British), being Sardar Sepah (commander in chief of the army), minister of war and later also prime minister.\n Inspired Atatürks Turkey, Reza Shah has introduced many social, economic, and political reforms; amongst which are the modernising of infrastructure and the military, policies of detribalization, sedentarization and Persianization, he has laid a foundation for a modern Iranian state.\n However the future of this state and the Shahs rule are bound to be rocky, as the balance of power in the region and the world at large is shifting. Will the Shah be able to keep playing the foreign powers against each other to maintains Iran's freedom?</v>
+        <f aca="false">IF(ISBLANK(A8),"",C8)</f>
+        <v> POLITICS_REZA_SHAH_PAHLAVI_DESC:0 "Schah von Iran seit dem 15. Dezember 1925, als er durch einen Beschluss des persischen Parlaments (Majlis) zum legalen Monarchen von Iran ernannt wurde und damit die Herrschaft des damals bereits im Exil lebenden Ahmad Schah und der Qajar-Dynastie beendete. Zuvor war er bereits seit dem Staatsstreich der (von den Briten unterstützten) persischen Kosakenbrigade von 1921 als Sardar Sepah (Oberbefehlshaber der Armee), Kriegsminister und später auch Premierminister die eigentliche Macht in Persien. \n Nach dem Vorbild von Atatürks Türkei hat Reza Schah viele soziale, wirtschaftliche und politische Reformen eingeleitet, darunter die Modernisierung der Infrastruktur und des Militärs, eine Politik der Entstammung, Sesshaftmachung und Persianisierung, und damit den Grundstein für einen modernen iranischen Staat gelegt.\n Die Zukunft dieses Staates und der Herrschaft des Schahs ist jedoch ungewiss, da sich das Machtgleichgewicht in der Region und in der Welt insgesamt verschiebt. Wird der Schah in der Lage sein, die ausländischen Mächte weiterhin gegeneinander auszuspielen, um die Freiheit des Irans zu bewahren? "</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v>POLITICS_REZA_SHAH_PAHLAVI_DESC_prisoner:0 "Reza Shah has officially been restored as the ruler of Iran now that the Sovoiets and British have been driven out of the country. However the British have as a consequence imprisoned the reinstated Shah as he had been in exile under their supervision. The new benefactors of the Iranian State will have to make haste to locate and free the Shah if they wish to stabilize the country and legitimize the new order."</v>
+        <v> POLITICS_REZA_SHAH_PAHLAVI_DESC_prisoner:0 "Nachdem die Sowjets und die Briten aus dem Land vertrieben wurden, ist Reza Schah offiziell wieder als Herrscher des Iran eingesetzt worden. Allerdings haben die Briten den wiedereingesetzten Schah inhaftiert, da er unter ihrer Aufsicht im Exil gelebt hatte. Die neuen Wohltäter des iranischen Staates werden sich beeilen müssen, den Schah ausfindig zu machen und zu befreien, wenn sie das Land stabilisieren und die neue Ordnung legitimieren wollen."</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A9),"",B9)</f>
-        <v>Reza Shah has officially been restored as the ruler of Iran now that the Sovoiets and British have been driven out of the country. However the British have as a consequence imprisoned the reinstated Shah as he had been in exile under their supervision. The new benefactors of the Iranian State will have to make haste to locate and free the Shah if they wish to stabilize the country and legitimize the new order.</v>
+        <f aca="false">IF(ISBLANK(A9),"",C9)</f>
+        <v> POLITICS_REZA_SHAH_PAHLAVI_DESC_prisoner:0 "Nachdem die Sowjets und die Briten aus dem Land vertrieben wurden, ist Reza Schah offiziell wieder als Herrscher des Iran eingesetzt worden. Allerdings haben die Briten den wiedereingesetzten Schah inhaftiert, da er unter ihrer Aufsicht im Exil gelebt hatte. Die neuen Wohltäter des iranischen Staates werden sich beeilen müssen, den Schah ausfindig zu machen und zu befreien, wenn sie das Land stabilisieren und die neue Ordnung legitimieren wollen."</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v>POLITICS_REZA_SHAH_PAHLAVI_DESC_freed:0 "Reza Shah once again properly rules his country from the \"§YTakht-e Khurshīd§!\"</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v> POLITICS_REZA_SHAH_PAHLAVI_DESC_freed:0 "Reza Schah regiert sein Land wieder ordnungsgemäß vom \"§Y§Y Takht-e Khurshīd §!§! \" (dem persischen Sonnenthron), nachdem er aus seiner Gefangenschaft befreit wurde. Die Frage ist nun, ob er den Iran als freie Nation erhalten kann..."</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A10),"",C10)</f>
+        <v> POLITICS_REZA_SHAH_PAHLAVI_DESC_freed:0 "Reza Schah regiert sein Land wieder ordnungsgemäß vom \"§Y§Y Takht-e Khurshīd §!§! \" (dem persischen Sonnenthron), nachdem er aus seiner Gefangenschaft befreit wurde. Die Frage ist nun, ob er den Iran als freie Nation erhalten kann..."</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -1099,16 +1097,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="str">
-        <f aca="false">A11 &amp;" " &amp;"""" &amp;A11 &amp;""""</f>
-        <v> ""</v>
-      </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> " """</v>
+        <v> ""</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A11),"",B11)</f>
+        <f aca="false">IF(ISBLANK(A11),"",C11)</f>
         <v/>
       </c>
     </row>
@@ -1121,10 +1115,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v>Mohammed "her:"</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>#!!!Portrait Mohammed her: Portrait_Mohammad_Reza_Pahlavi.dds  "sie:"</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A12),"",C12)</f>
+        <v>#!!!Portrait Mohammed her: Portrait_Mohammad_Reza_Pahlavi.dds  "sie:"</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,23 +1132,24 @@
         <v> " """</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A13),"",B13)</f>
+        <f aca="false">IF(ISBLANK(A13),"",C13)</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v>Leader "traits"</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>### Leader traits ### "Eigenschaften"</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A14),"",C14)</f>
+        <v>### Leader traits ### "Eigenschaften"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,40 +1162,40 @@
         <v> " """</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A15),"",B15)</f>
+        <f aca="false">IF(ISBLANK(A15),"",C15)</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v>political_prisoner:0 "Imprisoned by the enemy"</v>
+        <v> political_prisoner:0 "Gefangen vom Feind"</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A16),"",B16)</f>
-        <v>Imprisoned by the enemy</v>
+        <f aca="false">IF(ISBLANK(A16),"",C16)</f>
+        <v> political_prisoner:0 "Gefangen vom Feind"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v>political_prisoner_desc:0 "I need a hero to come and save me..."</v>
+        <v> political_prisoner_desc:0 "Ich brauche einen Helden, der kommt und mich rettet..."</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A17),"",B17)</f>
-        <v>I need a hero to come and save me...</v>
+        <f aca="false">IF(ISBLANK(A17),"",C17)</f>
+        <v> political_prisoner_desc:0 "Ich brauche einen Helden, der kommt und mich rettet..."</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +1208,7 @@
         <v> " """</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A18),"",B18)</f>
+        <f aca="false">IF(ISBLANK(A18),"",C18)</f>
         <v/>
       </c>
     </row>
@@ -1226,24 +1222,24 @@
         <v> " """</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A19),"",B19)</f>
+        <f aca="false">IF(ISBLANK(A19),"",C19)</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v>Opertions "###"</v>
+        <v>### Opertions ### "###"</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A20),"",B20)</f>
-        <v>###</v>
+        <f aca="false">IF(ISBLANK(A20),"",C20)</f>
+        <v>### Opertions ### "###"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,189 +1252,190 @@
         <v> " """</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A21),"",B21)</f>
+        <f aca="false">IF(ISBLANK(A21),"",C21)</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v>rescue_Reza_Shah:0 "Operation Zoroaster"</v>
+        <v> rescue_Reza_Shah:0 "Operation Zoroaster"</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A22),"",B22)</f>
-        <v>Operation Zoroaster</v>
+        <f aca="false">IF(ISBLANK(A22),"",C22)</f>
+        <v> rescue_Reza_Shah:0 "Operation Zoroaster"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v>rescue_Reza_Shah_desc:0 "§LAs part of the [ENG.GetFactionName] occupation of [Per.GetName], Reza Shah had to abdicate in favour of his more pliant son. Consequently Reza Shah had to go in \"supervised\"</v>
-      </c>
-      <c r="D23" s="1" t="s">
+        <v> rescue_Reza_Shah_desc:0 "§Als Teil der [ENG.GetFactionName]-Besetzung von [Per.GetName] musste Reza Shah zugunsten seines gefügigeren Sohnes abdanken. Infolgedessen musste Reza Schah ins "überwachte" Exil gehen, das sich jedoch in eine regelrechte Gefangenschaft verwandelte, als wir Persien von kommunistischer und kapitalistischer Unterdrückung befreiten. In dem Bemühen, das Land zu stabilisieren und seine Bevölkerung und Führung für unsere Sache zu gewinnen, versprachen wir, Reza Pahlavi zu befreien und wieder einzusetzen. Jetzt, da wir den Ort ausfindig gemacht haben, an dem er wahrscheinlich festgehalten wird, sollten wir schnellstmöglich eine Rettungsaktion starten! §!§! "</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A23),"",C23)</f>
+        <v> rescue_Reza_Shah_desc:0 "§Als Teil der [ENG.GetFactionName]-Besetzung von [Per.GetName] musste Reza Shah zugunsten seines gefügigeren Sohnes abdanken. Infolgedessen musste Reza Schah ins "überwachte" Exil gehen, das sich jedoch in eine regelrechte Gefangenschaft verwandelte, als wir Persien von kommunistischer und kapitalistischer Unterdrückung befreiten. In dem Bemühen, das Land zu stabilisieren und seine Bevölkerung und Führung für unsere Sache zu gewinnen, versprachen wir, Reza Pahlavi zu befreien und wieder einzusetzen. Jetzt, da wir den Ort ausfindig gemacht haben, an dem er wahrscheinlich festgehalten wird, sollten wir schnellstmöglich eine Rettungsaktion starten! §!§! "</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="X23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="AB23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AD23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AD23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AG23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AK23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AI23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
+      <c r="AL23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AK23" s="2" t="s">
+      <c r="AM23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AL23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN23" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AO23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AS23" s="2" t="s">
+      <c r="AU23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AT23" s="2" t="s">
+      <c r="AV23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AU23" s="2" t="s">
+      <c r="AW23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AV23" s="2" t="s">
+      <c r="AY23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX23" s="2" t="s">
+      <c r="AZ23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AY23" s="2" t="s">
+      <c r="BB23" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="AZ23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB23" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="BC23" s="2" t="s">
         <v>28</v>
@@ -1447,170 +1444,171 @@
         <v>26</v>
       </c>
       <c r="BE23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BF23" s="2" t="s">
+      <c r="BI23" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="BG23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="BJ23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="BK23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BL23" s="2" t="s">
+      <c r="BN23" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="BM23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN23" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v>rescue_Reza_Shah_infiltration:0 "Dropping the special forces near the prison"</v>
+        <v> rescue_Reza_Shah_infiltration:0 "Absetzen der Spezialeinheiten in der Nähe des Gefängnisses"</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A24),"",B24)</f>
-        <v>Dropping the special forces near the prison</v>
+        <f aca="false">IF(ISBLANK(A24),"",C24)</f>
+        <v> rescue_Reza_Shah_infiltration:0 "Absetzen der Spezialeinheiten in der Nähe des Gefängnisses"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v>rescue_Reza_Shah_infiltration_desc:0 "An elite special force unit will be dropped off near the compound where our intelligence service indicates Reza Pahlavi is held."</v>
+        <v> rescue_Reza_Shah_infiltration_desc:0 "Eine Eliteeinheit von Spezialkräften wird in der Nähe des Geländes abgesetzt, in dem Reza Pahlavi laut unserem Geheimdienst festgehalten wird."</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A25),"",B25)</f>
-        <v>An elite special force unit will be dropped off near the compound where our intelligence service indicates Reza Pahlavi is held.</v>
+        <f aca="false">IF(ISBLANK(A25),"",C25)</f>
+        <v> rescue_Reza_Shah_infiltration_desc:0 "Eine Eliteeinheit von Spezialkräften wird in der Nähe des Geländes abgesetzt, in dem Reza Pahlavi laut unserem Geheimdienst festgehalten wird."</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v>rescue_Reza_Shah_attack:0 "Aerial raid of the area"</v>
+        <v> rescue_Reza_Shah_attack:0 "Luftangriff auf das Gebiet"</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A26),"",B26)</f>
-        <v>Aerial raid of the area</v>
+        <f aca="false">IF(ISBLANK(A26),"",C26)</f>
+        <v> rescue_Reza_Shah_attack:0 "Luftangriff auf das Gebiet"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v>rescue_Reza_Shah_attack_desc:0 "An aerial raid will be launched in the area, as to distract the the Shahs guards. In the meanwhile our operatives will attempt to infiltrate the compound and free the target."</v>
+        <v> rescue_Reza_Shah_attack_desc:0 "Es wird ein Luftangriff auf das Gebiet gestartet, um die Wachen des Schahs abzulenken. In der Zwischenzeit werden unsere Agenten versuchen, das Gelände zu infiltrieren und die Zielperson zu befreien."</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A27),"",B27)</f>
-        <v>An aerial raid will be launched in the area, as to distract the the Shahs guards. In the meanwhile our operatives will attempt to infiltrate the compound and free the target.</v>
+        <f aca="false">IF(ISBLANK(A27),"",C27)</f>
+        <v> rescue_Reza_Shah_attack_desc:0 "Es wird ein Luftangriff auf das Gebiet gestartet, um die Wachen des Schahs abzulenken. In der Zwischenzeit werden unsere Agenten versuchen, das Gelände zu infiltrieren und die Zielperson zu befreien."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v>rescue_Reza_Shah_exfiltration:0 "Extraction via airplane"</v>
+        <v> rescue_Reza_Shah_exfiltration:0 "Abzug per Flugzeug"</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A28),"",B28)</f>
-        <v>Extraction via airplane</v>
+        <f aca="false">IF(ISBLANK(A28),"",C28)</f>
+        <v> rescue_Reza_Shah_exfiltration:0 "Abzug per Flugzeug"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v>rescue_Reza_Shah_exfiltration_desc:0 "Reza Shah and the team will picked up by plane on a designated location nearby, which should then return them to a friendly airfield."</v>
+        <v> rescue_Reza_Shah_exfiltration_desc:0 "Reza Shah und das Team werden an einem bestimmten Ort in der Nähe mit einem Flugzeug abgeholt, das sie zu einem befreundeten Flugplatz bringen soll."</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A29),"",B29)</f>
-        <v>Reza Shah and the team will picked up by plane on a designated location nearby, which should then return them to a friendly airfield.</v>
+        <f aca="false">IF(ISBLANK(A29),"",C29)</f>
+        <v> rescue_Reza_Shah_exfiltration_desc:0 "Reza Shah und das Team werden an einem bestimmten Ort in der Nähe mit einem Flugzeug abgeholt, das sie zu einem befreundeten Flugplatz bringen soll."</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v>#!!!Relation "modifer,"</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v> #!!!Relation modifer, add? GER_rescued_mussolini:0 ""Geretteter Mussolini"!!!"</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A30),"",C30)</f>
+        <v> #!!!Relation modifer, add? GER_rescued_mussolini:0 ""Geretteter Mussolini"!!!"</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v>rescue_Reza_Shah_outcome_tt:0 "We will attempt to liberate Reza Shah. The attempt is not without risk though..."</v>
+        <v> rescue_Reza_Shah_outcome_tt:0 "Wir werden versuchen, Reza Shah zu befreien. Der Versuch ist jedoch nicht ohne Risiko..."</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A31),"",B31)</f>
-        <v>We will attempt to liberate Reza Shah. The attempt is not without risk though...</v>
+        <f aca="false">IF(ISBLANK(A31),"",C31)</f>
+        <v> rescue_Reza_Shah_outcome_tt:0 "Wir werden versuchen, Reza Shah zu befreien. Der Versuch ist jedoch nicht ohne Risiko..."</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,22 +1621,24 @@
         <v> " """</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A32),"",B32)</f>
+        <f aca="false">IF(ISBLANK(A32),"",C32)</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="str">
-        <f aca="false">A33 &amp;" " &amp;"""" &amp;A33 &amp;""""</f>
-        <v> ""</v>
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> " """</v>
+        <v>#Parties# "#Parteien# "#Parteien#""</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A33),"",B33)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A33),"",C33)</f>
+        <v>#Parties# "#Parteien# "#Parteien#""</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,115 +1651,120 @@
         <v> " """</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A34),"",B34)</f>
+        <f aca="false">IF(ISBLANK(A34),"",C34)</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v>MCK_qing_restored:0 "Manchu Restorationist Clique"</v>
+        <v> MCK_qing_restored:0 "Mandschu-Restaurationisten-Clique"</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A35),"",B35)</f>
-        <v>Manchu Restorationist Clique</v>
+        <f aca="false">IF(ISBLANK(A35),"",C35)</f>
+        <v> MCK_qing_restored:0 "Mandschu-Restaurationisten-Clique"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="str">
-        <f aca="false">A36 &amp;" " &amp;"""" &amp;A36 &amp;""""</f>
-        <v> ""</v>
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> " """</v>
+        <v>  " "</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A36),"",B36)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A36),"",C36)</f>
+        <v>  " "</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="str">
-        <f aca="false">A37 &amp;" " &amp;"""" &amp;A37 &amp;""""</f>
-        <v> ""</v>
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> " """</v>
+        <v>  " "</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A37),"",B37)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A37),"",C37)</f>
+        <v>  " "</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="1" t="str">
-        <f aca="false">A38 &amp;" " &amp;"""" &amp;A38 &amp;""""</f>
-        <v>#Countries# "#Countries#"</v>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v>#Countries# "#Countries# "#Countries#""</v>
+        <v> #Countries# " #Länder# " #Länder#""</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A38),"",B38)</f>
-        <v>#Countries# "#Countries#"</v>
+        <f aca="false">IF(ISBLANK(A38),"",C38)</f>
+        <v> #Countries# " #Länder# " #Länder#""</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="str">
-        <f aca="false">A39 &amp;" " &amp;"""" &amp;A39 &amp;""""</f>
-        <v> ""</v>
+      <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> " """</v>
+        <v>  " "</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A39),"",B39)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A39),"",C39)</f>
+        <v>  " "</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v>GER_greater_german_reich_fascism:0 "Greater German Reich"</v>
+        <v> GER_greater_german_reich_fascism:0 "Großes Deutsches Reich"</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A40),"",B40)</f>
-        <v>Greater German Reich</v>
+        <f aca="false">IF(ISBLANK(A40),"",C40)</f>
+        <v> GER_greater_german_reich_fascism:0 "Großes Deutsches Reich"</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v>GER_greater_german_reich_fascism_DEF:0 "The Greater German Reich"</v>
+        <v> GER_greater_german_reich_fascism_DEF:0 "Das Großdeutsche Reich"</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A41),"",B41)</f>
-        <v>The Greater German Reich</v>
+        <f aca="false">IF(ISBLANK(A41),"",C41)</f>
+        <v> GER_greater_german_reich_fascism_DEF:0 "Das Großdeutsche Reich"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,22 +1777,24 @@
         <v> " """</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A42),"",B42)</f>
+        <f aca="false">IF(ISBLANK(A42),"",C42)</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="str">
-        <f aca="false">A43 &amp;" " &amp;"""" &amp;A43 &amp;""""</f>
-        <v> ""</v>
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> " """</v>
+        <v>#Factions# "#Fakten# "#Fakten#""</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A43),"",B43)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A43),"",C43)</f>
+        <v>#Factions# "#Fakten# "#Fakten#""</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,24 +1807,24 @@
         <v> " """</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A44),"",B44)</f>
+        <f aca="false">IF(ISBLANK(A44),"",C44)</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v>American_League:0 "The American League"</v>
+        <v> American_League:0 "Die Amerikanische Liga"</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A45),"",B45)</f>
-        <v>The American League</v>
+        <f aca="false">IF(ISBLANK(A45),"",C45)</f>
+        <v> American_League:0 "Die Amerikanische Liga"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,25 +1837,24 @@
         <v> " """</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A46),"",B46)</f>
+        <f aca="false">IF(ISBLANK(A46),"",C46)</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f aca="false">A47 &amp;" " &amp;"""" &amp;A47 &amp;""""</f>
-        <v>resistance# "resistance#"</v>
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v>resistance# "resistance# "resistance#""</v>
+        <v>#Tooltips resistance# "#Tooltips Widerstand# "#Tooltips Widerstand#""</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A47),"",B47)</f>
-        <v>resistance# "resistance#"</v>
+        <f aca="false">IF(ISBLANK(A47),"",C47)</f>
+        <v>#Tooltips resistance# "#Tooltips Widerstand# "#Tooltips Widerstand#""</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1867,7 @@
         <v> " """</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A48),"",B48)</f>
+        <f aca="false">IF(ISBLANK(A48),"",C48)</f>
         <v/>
       </c>
     </row>
@@ -1875,600 +1881,604 @@
         <v> " """</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A49),"",B49)</f>
+        <f aca="false">IF(ISBLANK(A49),"",C49)</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="str">
-        <f aca="false">A50 &amp;" " &amp;"""" &amp;A50 &amp;""""</f>
-        <v> ""</v>
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> " """</v>
+        <v>  " "</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A50),"",B50)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A50),"",C50)</f>
+        <v>  " "</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v>#Tooltips "Decisions"</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v> #Tooltips Decisions added# "Entscheidungen"</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A51),"",C51)</f>
+        <v> #Tooltips Decisions added# "Entscheidungen"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="str">
-        <f aca="false">A52 &amp;" " &amp;"""" &amp;A52 &amp;""""</f>
-        <v> ""</v>
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> " """</v>
+        <v>  " "</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A52),"",B52)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A52),"",C52)</f>
+        <v>  " "</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v>GER_peace_with_Finland:0 "Make peace with the Finns"</v>
+        <v> GER_peace_with_Finland:0 "Schließen Sie Frieden mit den Finnen"</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A53),"",B53)</f>
-        <v>Make peace with the Finns</v>
+        <f aca="false">IF(ISBLANK(A53),"",C53)</f>
+        <v> GER_peace_with_Finland:0 "Schließen Sie Frieden mit den Finnen"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v>GER_peace_with_Finland_desc:0 "As Eastern Europe has been divided and carved up between us and the Soviets, the Finns are left as one of the few nations that continue to resist this new order. Without any hope for significant foreign support anytime soon and the Soviets looking eagerly to their borderlands, continuing the war has little benefit for either side. Perhaps they can still prove usefull to us in the future too..."</v>
+        <v> GER_peace_with_Finland_desc:0 "Nach der Aufteilung Osteuropas zwischen uns und den Sowjets bleiben die Finnen als eine der wenigen Nationen übrig, die sich dieser neuen Ordnung weiterhin widersetzen. Ohne Hoffnung auf nennenswerte ausländische Unterstützung in absehbarer Zeit und ohne dass die Sowjets eifrig nach ihren Grenzgebieten Ausschau halten, hat die Fortsetzung des Krieges für beide Seiten wenig Vorteile. Vielleicht können sie sich auch für uns in Zukunft noch als nützlich erweisen..."</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A54),"",B54)</f>
-        <v>As Eastern Europe has been divided and carved up between us and the Soviets, the Finns are left as one of the few nations that continue to resist this new order. Without any hope for significant foreign support anytime soon and the Soviets looking eagerly to their borderlands, continuing the war has little benefit for either side. Perhaps they can still prove usefull to us in the future too...</v>
+        <f aca="false">IF(ISBLANK(A54),"",C54)</f>
+        <v> GER_peace_with_Finland_desc:0 "Nach der Aufteilung Osteuropas zwischen uns und den Sowjets bleiben die Finnen als eine der wenigen Nationen übrig, die sich dieser neuen Ordnung weiterhin widersetzen. Ohne Hoffnung auf nennenswerte ausländische Unterstützung in absehbarer Zeit und ohne dass die Sowjets eifrig nach ihren Grenzgebieten Ausschau halten, hat die Fortsetzung des Krieges für beide Seiten wenig Vorteile. Vielleicht können sie sich auch für uns in Zukunft noch als nützlich erweisen..."</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v>bramja_FIN_GER_Peace_tt:0 "Finland will very likely accept our offer, however you never know with these wonky Northerners..."</v>
+        <v> bramja_FIN_GER_Peace_tt:0 "Finnland wird unser Angebot höchstwahrscheinlich annehmen, aber bei diesen eigenwilligen Nordländern kann man nie wissen..."</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A55),"",B55)</f>
-        <v>Finland will very likely accept our offer, however you never know with these wonky Northerners...</v>
+        <f aca="false">IF(ISBLANK(A55),"",C55)</f>
+        <v> bramja_FIN_GER_Peace_tt:0 "Finnland wird unser Angebot höchstwahrscheinlich annehmen, aber bei diesen eigenwilligen Nordländern kann man nie wissen..."</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v>GER_Gau_Silesia_Kattowitz:0 "Integrate Kattowitz into the Gau Oberschlesien"</v>
+        <v> GER_Gau_Silesia_Kattowitz:0 "Kattowitz in den Gau Oberschlesien eingliedern"</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A56),"",B56)</f>
-        <v>Integrate Kattowitz into the Gau Oberschlesien</v>
+        <f aca="false">IF(ISBLANK(A56),"",C56)</f>
+        <v> GER_Gau_Silesia_Kattowitz:0 "Kattowitz in den Gau Oberschlesien eingliedern"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v>GER_Gau_Silesia_Kattowitz_desc:0 "Now that the calm has returned to the region, we shall integrate Kattowitz into the administration of the newly established Gau Oberschlesien (resulting from the division of the Gau Schlesien). Once resistance has been surpressed entirely and proper German ways have been reestablished, it will be a full, integral part of the Reich once more!"</v>
+        <v> GER_Gau_Silesia_Kattowitz_desc:0 "Nachdem nun wieder Ruhe in der Region eingekehrt ist, werden wir Kattowitz in die Verwaltung des neu gegründeten Gaues Oberschlesien (entstanden aus der Teilung des Gaues Schlesien) integrieren. Sobald der Widerstand vollständig niedergeschlagen ist und die deutschen Verhältnisse wieder hergestellt sind, wird es wieder ein vollwertiger Bestandteil des Reiches sein!"</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A57),"",B57)</f>
-        <v>Now that the calm has returned to the region, we shall integrate Kattowitz into the administration of the newly established Gau Oberschlesien (resulting from the division of the Gau Schlesien). Once resistance has been surpressed entirely and proper German ways have been reestablished, it will be a full, integral part of the Reich once more!</v>
+        <f aca="false">IF(ISBLANK(A57),"",C57)</f>
+        <v> GER_Gau_Silesia_Kattowitz_desc:0 "Nachdem nun wieder Ruhe in der Region eingekehrt ist, werden wir Kattowitz in die Verwaltung des neu gegründeten Gaues Oberschlesien (entstanden aus der Teilung des Gaues Schlesien) integrieren. Sobald der Widerstand vollständig niedergeschlagen ist und die deutschen Verhältnisse wieder hergestellt sind, wird es wieder ein vollwertiger Bestandteil des Reiches sein!"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v>GER_Integrate_Kattowitz:0 "Heim ins Reich: Oberschlesien"</v>
+        <v> GER_Integrate_Kattowitz:0 "Heim ins Reich: Oberschlesien"</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A58),"",B58)</f>
-        <v>Heim ins Reich: Oberschlesien</v>
+        <f aca="false">IF(ISBLANK(A58),"",C58)</f>
+        <v> GER_Integrate_Kattowitz:0 "Heim ins Reich: Oberschlesien"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v>GER_Integrate_Kattowitz_desc:0 " Most resistance has been supressed and German administration, education, etc. are fully reestablished. Willkommen daheim Kattowitz. "</v>
+        <v> GER_Integrate_Kattowitz_desc:0 " Der größte Teil des Widerstandes ist unterdrückt und die deutsche Verwaltung, das Bildungswesen usw. sind vollständig wiederhergestellt. Willkommen daheim in Kattowitz. "</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A59),"",B59)</f>
-        <v> Most resistance has been supressed and German administration, education, etc. are fully reestablished. Willkommen daheim Kattowitz. </v>
+        <f aca="false">IF(ISBLANK(A59),"",C59)</f>
+        <v> GER_Integrate_Kattowitz_desc:0 " Der größte Teil des Widerstandes ist unterdrückt und die deutsche Verwaltung, das Bildungswesen usw. sind vollständig wiederhergestellt. Willkommen daheim in Kattowitz. "</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v>GER_Gau_Silesia_Teschen:0 "Integrate Teschen into the Gau Oberschlesien"</v>
+        <v> GER_Gau_Silesia_Teschen:0 "Eingliederung von Teschen in den Gau Oberschlesien"</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A60),"",B60)</f>
-        <v>Integrate Teschen into the Gau Oberschlesien</v>
+        <f aca="false">IF(ISBLANK(A60),"",C60)</f>
+        <v> GER_Gau_Silesia_Teschen:0 "Eingliederung von Teschen in den Gau Oberschlesien"</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v>GER_Gau_Silesia_Teschen_desc:0 "Since its separation from Österreich, the former Duchy of Teschen has seen its fair share of conflict, with Czechs and Poles contesting the others control over the region. It became even clearer the last few year that Teschener Schlesien needed to return to Germanien to find prosperity once more. Today is that day!"</v>
+        <v> GER_Gau_Silesia_Teschen_desc:0 "Seit der Abtrennung von Österreich hat das ehemalige Herzogtum Teschen eine Reihe von Konflikten erlebt, bei denen Tschechen und Polen einander die Kontrolle über die Region streitig machten. In den letzten Jahren wurde immer deutlicher, dass das Teschener Schlesien nach Germanien zurückkehren muss, um wieder zu Wohlstand zu kommen. Heute ist dieser Tag gekommen! "</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A61),"",B61)</f>
-        <v>Since its separation from Österreich, the former Duchy of Teschen has seen its fair share of conflict, with Czechs and Poles contesting the others control over the region. It became even clearer the last few year that Teschener Schlesien needed to return to Germanien to find prosperity once more. Today is that day!</v>
+        <f aca="false">IF(ISBLANK(A61),"",C61)</f>
+        <v> GER_Gau_Silesia_Teschen_desc:0 "Seit der Abtrennung von Österreich hat das ehemalige Herzogtum Teschen eine Reihe von Konflikten erlebt, bei denen Tschechen und Polen einander die Kontrolle über die Region streitig machten. In den letzten Jahren wurde immer deutlicher, dass das Teschener Schlesien nach Germanien zurückkehren muss, um wieder zu Wohlstand zu kommen. Heute ist dieser Tag gekommen! "</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v>GER_Integrate_Teschen:0 "Heim ins Reich: Teschener Schlesien"</v>
+        <v> GER_Integrate_Teschen:0 "Heim ins Reich: Teschener Schlesien"</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A62),"",B62)</f>
-        <v>Heim ins Reich: Teschener Schlesien</v>
+        <f aca="false">IF(ISBLANK(A62),"",C62)</f>
+        <v> GER_Integrate_Teschen:0 "Heim ins Reich: Teschener Schlesien"</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v>GER_Integrate_Teschen_desc:0 "Though it proved more challenging than in most reconquered German lands, Teschen and its surrounding territory has been fully reintregrated! "</v>
+        <v> GER_Integrate_Teschen_desc:0 "Obwohl es schwieriger war als in den meisten zurückeroberten deutschen Gebieten, ist Teschen und sein Umland vollständig wieder eingegliedert worden! "</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A63),"",B63)</f>
-        <v>Though it proved more challenging than in most reconquered German lands, Teschen and its surrounding territory has been fully reintregrated! </v>
+        <f aca="false">IF(ISBLANK(A63),"",C63)</f>
+        <v> GER_Integrate_Teschen_desc:0 "Obwohl es schwieriger war als in den meisten zurückeroberten deutschen Gebieten, ist Teschen und sein Umland vollständig wieder eingegliedert worden! "</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v>GER_Claim_Slovenia:0 "Start Germanizing Slovenia"</v>
+        <v> GER_Claim_Slovenia:0 "Beginn der Germanisierung Sloweniens"</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A64),"",B64)</f>
-        <v>Start Germanizing Slovenia</v>
+        <f aca="false">IF(ISBLANK(A64),"",C64)</f>
+        <v> GER_Claim_Slovenia:0 "Beginn der Germanisierung Sloweniens"</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v>GER_Claim_Slovenia_desc:0 "Now that the former Austrian territory of Slovenia has become part of the [Root.GetNameDef] once again, we should start the pacification of the region to prepare it for full integration."</v>
+        <v> GER_Claim_Slovenia_desc:0 "Jetzt, wo das ehemalige österreichische Territorium Slowenien wieder Teil des [Root.GetNameDef] geworden ist, sollten wir mit der Befriedung der Region beginnen, um sie auf die vollständige Integration vorzubereiten."</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A65),"",B65)</f>
-        <v>Now that the former Austrian territory of Slovenia has become part of the [Root.GetNameDef] once again, we should start the pacification of the region to prepare it for full integration.</v>
+        <f aca="false">IF(ISBLANK(A65),"",C65)</f>
+        <v> GER_Claim_Slovenia_desc:0 "Jetzt, wo das ehemalige österreichische Territorium Slowenien wieder Teil des [Root.GetNameDef] geworden ist, sollten wir mit der Befriedung der Region beginnen, um sie auf die vollständige Integration vorzubereiten."</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v>GER_Integrate_Slovenia:0 "Heim ins Reich: Krain"</v>
+        <v> GER_Integrate_Slovenia:0 "Heim ins Reich: Krain"</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A66),"",B66)</f>
-        <v>Heim ins Reich: Krain</v>
+        <f aca="false">IF(ISBLANK(A66),"",C66)</f>
+        <v> GER_Integrate_Slovenia:0 "Heim ins Reich: Krain"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v>GER_Integrate_Slovenia_desc:0 "Another piece of the stained legacy of the Great War has been washed away, the Krain has been properly pacified and is ready to become a full part of the 3rd and final Reich!"</v>
+        <v> GER_Integrate_Slovenia_desc:0 "Ein weiteres Stück der befleckten Hinterlassenschaft des Großen Krieges ist beseitigt, das Krain wurde ordnungsgemäß befriedet und ist bereit, ein vollständiger Teil des 3. und letzten Reiches zu werden!"</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A67),"",B67)</f>
-        <v>Another piece of the stained legacy of the Great War has been washed away, the Krain has been properly pacified and is ready to become a full part of the 3rd and final Reich!</v>
+        <f aca="false">IF(ISBLANK(A67),"",C67)</f>
+        <v> GER_Integrate_Slovenia_desc:0 "Ein weiteres Stück der befleckten Hinterlassenschaft des Großen Krieges ist beseitigt, das Krain wurde ordnungsgemäß befriedet und ist bereit, ein vollständiger Teil des 3. und letzten Reiches zu werden!"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v>GER_support_reichskommissariats:0 "Support [From.GetNameDef]"</v>
+        <v> GER_support_reichskommissariats:0 "Unterstützung [From.GetNameDef]"</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A68),"",B68)</f>
-        <v>Support [From.GetNameDef]</v>
+        <f aca="false">IF(ISBLANK(A68),"",C68)</f>
+        <v> GER_support_reichskommissariats:0 "Unterstützung [From.GetNameDef]"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v>GER_support_reichskommissariats_desc:0 "We need to establish total domination over our rightfull conquests in the East to secure the Reichs future! We shall send the required equipment for the forces of the Reichkommissar [FROM.GetLeader] to ensure all resistance is eradicated."</v>
+        <v> GER_support_reichskommissariats_desc:0 "Wir müssen die totale Herrschaft über unsere rechtmäßigen Eroberungen im Osten errichten, um die Zukunft des Reiches zu sichern! Wir werden die erforderliche Ausrüstung für die Truppen des Reichskommissars [FROM.GetLeader] schicken, um sicherzustellen, dass jeder Widerstand ausgerottet wird."</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A69),"",B69)</f>
-        <v>We need to establish total domination over our rightfull conquests in the East to secure the Reichs future! We shall send the required equipment for the forces of the Reichkommissar [FROM.GetLeader] to ensure all resistance is eradicated.</v>
+        <f aca="false">IF(ISBLANK(A69),"",C69)</f>
+        <v> GER_support_reichskommissariats_desc:0 "Wir müssen die totale Herrschaft über unsere rechtmäßigen Eroberungen im Osten errichten, um die Zukunft des Reiches zu sichern! Wir werden die erforderliche Ausrüstung für die Truppen des Reichskommissars [FROM.GetLeader] schicken, um sicherzustellen, dass jeder Widerstand ausgerottet wird."</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v>GER_peace_with_Iran:0 "The Tehran Dictate"</v>
+        <v> GER_peace_with_Iran:0 "Das Teheraner Diktat"</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A70),"",B70)</f>
-        <v>The Tehran Dictate</v>
+        <f aca="false">IF(ISBLANK(A70),"",C70)</f>
+        <v> GER_peace_with_Iran:0 "Das Teheraner Diktat"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v>GER_peace_with_Iran_desc:0 "Impose our will on the Persians:	"</v>
+        <v> GER_peace_with_Iran_desc:0 "Zwingt den Persern unseren Willen auf: "</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A71),"",B71)</f>
-        <v>Impose our will on the Persians:	</v>
+        <f aca="false">IF(ISBLANK(A71),"",C71)</f>
+        <v> GER_peace_with_Iran_desc:0 "Zwingt den Persern unseren Willen auf: "</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v>bramja_Per_buffer_tt:0 "§W 1.Persia will be designated as a buffer state, \n 2. With us guaranteeing their independence but other than that leaving Persia politically and military independent (for now...), as the region marks the limits of where our influence can reach, as per agreements made with our co-belligerents in the East. \n 3. We will however make sure they cut any ties, be it political or economical, with their former oppressors. Furthermore [From.GetNameDef] will assert exclusive rights to the Persian oil reserves. §! "</v>
+        <v> bramja_Per_buffer_tt:0 "§W§W 1.Persien wird zu einem Pufferstaat erklärt, \n 2. Wir garantieren seine Unabhängigkeit, lassen Persien aber ansonsten politisch und militärisch unabhängig (vorerst...), da die Region die Grenzen unseres Einflusses gemäß den mit unseren Mitkriegsparteien im Osten getroffenen Vereinbarungen markiert. \n 3. Wir werden jedoch dafür sorgen, dass sie jede Verbindung zu ihren früheren Unterdrückern kappen, sei es politisch oder wirtschaftlich. Außerdem wird [From.GetNameDef] die Exklusivrechte an den persischen Ölreserven geltend machen.  §!§!  "</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A72),"",B72)</f>
-        <v>§W 1.Persia will be designated as a buffer state, \n 2. With us guaranteeing their independence but other than that leaving Persia politically and military independent (for now...), as the region marks the limits of where our influence can reach, as per agreements made with our co-belligerents in the East. \n 3. We will however make sure they cut any ties, be it political or economical, with their former oppressors. Furthermore [From.GetNameDef] will assert exclusive rights to the Persian oil reserves. §! </v>
+        <f aca="false">IF(ISBLANK(A72),"",C72)</f>
+        <v> bramja_Per_buffer_tt:0 "§W§W 1.Persien wird zu einem Pufferstaat erklärt, \n 2. Wir garantieren seine Unabhängigkeit, lassen Persien aber ansonsten politisch und militärisch unabhängig (vorerst...), da die Region die Grenzen unseres Einflusses gemäß den mit unseren Mitkriegsparteien im Osten getroffenen Vereinbarungen markiert. \n 3. Wir werden jedoch dafür sorgen, dass sie jede Verbindung zu ihren früheren Unterdrückern kappen, sei es politisch oder wirtschaftlich. Außerdem wird [From.GetNameDef] die Exklusivrechte an den persischen Ölreserven geltend machen.  §!§!  "</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v>bramja_Per_countenanced_tt:0 "\n§L The occupation by the Soviets and Brittish has caused much suffering in Persia and left it without proper leadership as Shah Reza Pahlavi was forced to abdicate in favour of his pro-British son Mohammad. During the chaos various forces propagating opposing ideologies had the chance to increase their power,§! §O further destabilizing the country, making it a hotbed for rampant unrest.§! \n§H To stabilize the region and guarantee the stream of oil, our best option is installing Reza Pahlavi as Shah once more, given his legitmacy, aura of independence and his (somewhat) proven pro-[ROOT.GetFactionName] credentials. §!\n §R However given Reza Pahlavi's current imprisonment by the Brits,§! §W we must start planning a rescue operation,§!§R if he doesn't return to his throne soon, the country will be thrown in total chaos. §!"</v>
+        <v> bramja_Per_countenanced_tt:0 "\n§L§L Die Besetzung durch die Sowjets und die Briten hat in Persien viel Leid verursacht und das Land ohne richtige Führung zurückgelassen, da Schah Reza Pahlavi gezwungen war, zugunsten seines pro-britischen Sohnes Mohammad abzudanken. Während des Chaos hatten verschiedene Kräfte, die gegensätzliche Ideologien propagierten, die Möglichkeit, ihre Macht auszubauen, §!§!  §O§O das Land weiter zu destabilisieren und es zu einer Brutstätte wütender Unruhen zu machen. §!§!  \n§H§H Um die Region zu stabilisieren und den Ölfluss zu gewährleisten, ist es die beste Option, Reza Pahlavi erneut als Schah einzusetzen, da er legitimiert ist, eine Aura der Unabhängigkeit ausstrahlt und sich (in gewisser Weise) als Befürworter von [ROOT.GetFactionName] ausweist.  §!§! \n §R§R Da Reza Pahlavi jedoch derzeit von den Briten inhaftiert ist, §!§!  §W§W müssen wir mit der Planung einer Rettungsaktion beginnen, §!§! §R§R wenn er nicht bald auf seinen Thron zurückkehrt, wird das Land in ein totales Chaos gestürzt.  §!§! "</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A73),"",B73)</f>
-        <v>\n§L The occupation by the Soviets and Brittish has caused much suffering in Persia and left it without proper leadership as Shah Reza Pahlavi was forced to abdicate in favour of his pro-British son Mohammad. During the chaos various forces propagating opposing ideologies had the chance to increase their power,§! §O further destabilizing the country, making it a hotbed for rampant unrest.§! \n§H To stabilize the region and guarantee the stream of oil, our best option is installing Reza Pahlavi as Shah once more, given his legitmacy, aura of independence and his (somewhat) proven pro-[ROOT.GetFactionName] credentials. §!\n §R However given Reza Pahlavi's current imprisonment by the Brits,§! §W we must start planning a rescue operation,§!§R if he doesn't return to his throne soon, the country will be thrown in total chaos. §!</v>
+        <f aca="false">IF(ISBLANK(A73),"",C73)</f>
+        <v> bramja_Per_countenanced_tt:0 "\n§L§L Die Besetzung durch die Sowjets und die Briten hat in Persien viel Leid verursacht und das Land ohne richtige Führung zurückgelassen, da Schah Reza Pahlavi gezwungen war, zugunsten seines pro-britischen Sohnes Mohammad abzudanken. Während des Chaos hatten verschiedene Kräfte, die gegensätzliche Ideologien propagierten, die Möglichkeit, ihre Macht auszubauen, §!§!  §O§O das Land weiter zu destabilisieren und es zu einer Brutstätte wütender Unruhen zu machen. §!§!  \n§H§H Um die Region zu stabilisieren und den Ölfluss zu gewährleisten, ist es die beste Option, Reza Pahlavi erneut als Schah einzusetzen, da er legitimiert ist, eine Aura der Unabhängigkeit ausstrahlt und sich (in gewisser Weise) als Befürworter von [ROOT.GetFactionName] ausweist.  §!§! \n §R§R Da Reza Pahlavi jedoch derzeit von den Briten inhaftiert ist, §!§!  §W§W müssen wir mit der Planung einer Rettungsaktion beginnen, §!§! §R§R wenn er nicht bald auf seinen Thron zurückkehrt, wird das Land in ein totales Chaos gestürzt.  §!§! "</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v>bramja_Per_oil_rights_tt:0 "\n§WThe treay will give us the sole ownership over the Hormozgan oil reserves, however if we also have §!§M unchallenged control over the Straits of Hormuz, the Gulf of Aden and the Suez Canal,§!§G we and our strongest ally will also be able to assert exclusive rights to the oil fields in Khuzestan and Fars. §! \n"</v>
+        <v> bramja_Per_oil_rights_tt:0 "\n§W§W Der Thron wird uns das alleinige Eigentum an den Ölreserven von Hormozgan geben, aber wenn wir auch §!§! §M§M unangefochtene Kontrolle über die Straße von Hormuz, den Golf von Aden und den Suezkanal haben, §!§! §G§G werden wir und unser stärkster Verbündeter auch die Exklusivrechte an den Ölfeldern in Khuzestan und Fars geltend machen können.  §!§!  \n"</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A74),"",B74)</f>
-        <v>\n§WThe treay will give us the sole ownership over the Hormozgan oil reserves, however if we also have §!§M unchallenged control over the Straits of Hormuz, the Gulf of Aden and the Suez Canal,§!§G we and our strongest ally will also be able to assert exclusive rights to the oil fields in Khuzestan and Fars. §! \n</v>
+        <f aca="false">IF(ISBLANK(A74),"",C74)</f>
+        <v> bramja_Per_oil_rights_tt:0 "\n§W§W Der Thron wird uns das alleinige Eigentum an den Ölreserven von Hormozgan geben, aber wenn wir auch §!§! §M§M unangefochtene Kontrolle über die Straße von Hormuz, den Golf von Aden und den Suezkanal haben, §!§! §G§G werden wir und unser stärkster Verbündeter auch die Exklusivrechte an den Ölfeldern in Khuzestan und Fars geltend machen können.  §!§!  \n"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v>GER_at_end_of_world_SAF:0 "Brethren at Worlds End"</v>
+        <v> GER_at_end_of_world_SAF:0 "Brüder am Ende der Welt"</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A75),"",B75)</f>
-        <v>Brethren at Worlds End</v>
+        <f aca="false">IF(ISBLANK(A75),"",C75)</f>
+        <v> GER_at_end_of_world_SAF:0 "Brüder am Ende der Welt"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v>GER_at_end_of_world_SAF_desc:0 "§LThe South African Army and nation have suffered unsustainable casualties during the [ROOT.GetFactionName] conquest of Afrika, which is now at their doorstep...\n\nThe ongoing war between us and our fellow Germanic people in South Afrika is most unnatural and was never popular amongst the South African population, let alone the Afrikaners. The [SAF.GetAdjective] ruling class, decimated and facing our imminent invasion of their homelands, should be more than ever ready to finally accept our fatherly protection.\nMoreover coopting the Afrikaners will nullify many problems direct rule from far away [Root.Capital.GetName] would imply...§!"</v>
+        <v> GER_at_end_of_world_SAF_desc:0 "§Die südafrikanische Armee und Nation haben während der Eroberung Afrikas durch [ROOT.GetFactionName], die nun vor ihrer Tür steht, unerträgliche Verluste erlitten...\n\nDer andauernde Krieg zwischen uns und unseren germanischen Mitbürgern in Südafrika ist höchst unnatürlich und war in der südafrikanischen Bevölkerung nie beliebt, geschweige denn bei den Afrikanern. Die [SAF.GetAdjective] herrschende Klasse, dezimiert und mit unserer bevorstehenden Invasion ihrer Heimat konfrontiert, sollte mehr denn je bereit sein, endlich unseren väterlichen Schutz zu akzeptieren.\nDarüber hinaus wird die Kooptierung der Afrikaner viele Probleme zunichte machen, die eine direkte Herrschaft aus der Ferne [Root.Capital.GetName] mit sich bringen würde... §!§! "</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A76),"",B76)</f>
-        <v>§LThe South African Army and nation have suffered unsustainable casualties during the [ROOT.GetFactionName] conquest of Afrika, which is now at their doorstep...\n\nThe ongoing war between us and our fellow Germanic people in South Afrika is most unnatural and was never popular amongst the South African population, let alone the Afrikaners. The [SAF.GetAdjective] ruling class, decimated and facing our imminent invasion of their homelands, should be more than ever ready to finally accept our fatherly protection.\nMoreover coopting the Afrikaners will nullify many problems direct rule from far away [Root.Capital.GetName] would imply...§!</v>
+        <f aca="false">IF(ISBLANK(A76),"",C76)</f>
+        <v> GER_at_end_of_world_SAF_desc:0 "§Die südafrikanische Armee und Nation haben während der Eroberung Afrikas durch [ROOT.GetFactionName], die nun vor ihrer Tür steht, unerträgliche Verluste erlitten...\n\nDer andauernde Krieg zwischen uns und unseren germanischen Mitbürgern in Südafrika ist höchst unnatürlich und war in der südafrikanischen Bevölkerung nie beliebt, geschweige denn bei den Afrikanern. Die [SAF.GetAdjective] herrschende Klasse, dezimiert und mit unserer bevorstehenden Invasion ihrer Heimat konfrontiert, sollte mehr denn je bereit sein, endlich unseren väterlichen Schutz zu akzeptieren.\nDarüber hinaus wird die Kooptierung der Afrikaner viele Probleme zunichte machen, die eine direkte Herrschaft aus der Ferne [Root.Capital.GetName] mit sich bringen würde... §!§! "</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v>Conditions_GER_at_end_of_world_SAF_tt:0 "To send a credible ultimatum, two conditions must be fulfilled:\n  -South Africa has lost more than 130,000 men or implemented conscription for all adults.\n  -The [ROOT.GetFactionName] must have begun to occupy territory south of the Belgian Congo or Tanganyika."</v>
+        <v> Conditions_GER_at_end_of_world_SAF_tt:0 "Um ein glaubwürdiges Ultimatum zu stellen, müssen zwei Bedingungen erfüllt sein:\n -Südafrika hat mehr als 130.000 Männer verloren oder die Wehrpflicht für alle Erwachsenen eingeführt.\n -Die [ROOT.GetFactionName] muss begonnen haben, Gebiete südlich von Belgisch-Kongo oder Tanganjika zu besetzen."</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A77),"",B77)</f>
-        <v>To send a credible ultimatum, two conditions must be fulfilled:\n  -South Africa has lost more than 130,000 men or implemented conscription for all adults.\n  -The [ROOT.GetFactionName] must have begun to occupy territory south of the Belgian Congo or Tanganyika.</v>
+        <f aca="false">IF(ISBLANK(A77),"",C77)</f>
+        <v> Conditions_GER_at_end_of_world_SAF_tt:0 "Um ein glaubwürdiges Ultimatum zu stellen, müssen zwei Bedingungen erfüllt sein:\n -Südafrika hat mehr als 130.000 Männer verloren oder die Wehrpflicht für alle Erwachsenen eingeführt.\n -Die [ROOT.GetFactionName] muss begonnen haben, Gebiete südlich von Belgisch-Kongo oder Tanganjika zu besetzen."</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v>GER_at_end_of_world_SAF_tt:0 "§LAfrikaner Nationalists are reaching out to us as of late, their messages stressing that their country is ripe for realignment to our cause... They know very well by now it is their last option to keep their current way of life and societal positions in tact.§! \n\n§O Even this prospect however might not dissuade pro-[SAF.GetFactionName] groups led by [SAF.GetLeader] though, stubbornly not wanting to see reason.§!\n§GEven if this were to pass, forces gathered by the \"Gryshemde\", \"Gesuiwerde Nasionale Party\"</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>183</v>
+        <v> GER_at_end_of_world_SAF_tt:0 "§Afrikanische Nationalisten wenden sich in letzter Zeit an uns und betonen in ihren Botschaften, dass ihr Land reif für eine Neuausrichtung auf unsere Sache ist... Sie wissen inzwischen sehr gut, dass dies ihre letzte Möglichkeit ist, ihre derzeitige Lebensweise und gesellschaftliche Stellung zu erhalten. §!§!  \n\n§O§O Selbst diese Aussicht könnte die von [SAF.GetFactionName] angeführten Pro-[SAF.GetLeader]-Gruppen jedoch nicht davon abhalten, hartnäckig nicht zur Vernunft kommen zu wollen. §!§! \n§G§G Selbst wenn dies geschehen sollte, werden die von der \"Gryshemde\", \"Gesuiwerde Nasionale Party\" oder von \"Oswald Pirow\" versammelten Kräfte wild entschlossen sein, die Zügel der Regierung in die Hand zu nehmen, und zwar mit allen Mitteln, um dieses Ergebnis zu verhindern. §!§! \n§M§M Unsere Unterstützung sollte ein günstiges Ergebnis sicherstellen... §!§! \n "</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A78),"",C78)</f>
+        <v> GER_at_end_of_world_SAF_tt:0 "§Afrikanische Nationalisten wenden sich in letzter Zeit an uns und betonen in ihren Botschaften, dass ihr Land reif für eine Neuausrichtung auf unsere Sache ist... Sie wissen inzwischen sehr gut, dass dies ihre letzte Möglichkeit ist, ihre derzeitige Lebensweise und gesellschaftliche Stellung zu erhalten. §!§!  \n\n§O§O Selbst diese Aussicht könnte die von [SAF.GetFactionName] angeführten Pro-[SAF.GetLeader]-Gruppen jedoch nicht davon abhalten, hartnäckig nicht zur Vernunft kommen zu wollen. §!§! \n§G§G Selbst wenn dies geschehen sollte, werden die von der \"Gryshemde\", \"Gesuiwerde Nasionale Party\" oder von \"Oswald Pirow\" versammelten Kräfte wild entschlossen sein, die Zügel der Regierung in die Hand zu nehmen, und zwar mit allen Mitteln, um dieses Ergebnis zu verhindern. §!§! \n§M§M Unsere Unterstützung sollte ein günstiges Ergebnis sicherstellen... §!§! \n "</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="R78" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AB78" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AE78" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v>SOV_refugees_and_refugees_desc:0 "[SOV.GetNameDef] is in a dire state, after facing the onslaught of the [GER.GetAdjective] invasion and loss of their Western territories, they now face constant German bombing raids and a general state of confusion. We can make use of this situation to launch a call for the growing amounts refugees and deserters to join us and settle here..."</v>
+        <v> SOV_refugees_and_refugees:0 "Sowjetische Flüchtlinge, Deserteure und Experten anlocken"</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A79),"",B79)</f>
-        <v>[SOV.GetNameDef] is in a dire state, after facing the onslaught of the [GER.GetAdjective] invasion and loss of their Western territories, they now face constant German bombing raids and a general state of confusion. We can make use of this situation to launch a call for the growing amounts refugees and deserters to join us and settle here...</v>
+        <f aca="false">IF(ISBLANK(A79),"",C79)</f>
+        <v> SOV_refugees_and_refugees:0 "Sowjetische Flüchtlinge, Deserteure und Experten anlocken"</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="str">
-        <f aca="false">A80 &amp;" " &amp;"""" &amp;A80 &amp;""""</f>
-        <v> ""</v>
+      <c r="A80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> " """</v>
+        <v> SOV_refugees_and_refugees_desc:0 "Die [SOV.GetNameDef] befindet sich in einer katastrophalen Lage: Nach dem Ansturm der [GER.GetAdjective] Invasion und dem Verlust ihrer westlichen Gebiete sind sie nun mit ständigen deutschen Bombenangriffen und einem allgemeinen Zustand der Verwirrung konfrontiert. Wir können diese Situation nutzen, um einen Aufruf an die wachsende Zahl von Flüchtlingen und Deserteuren zu starten, sich uns anzuschließen und sich hier niederzulassen..."</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A80),"",B80)</f>
-        <v/>
+        <f aca="false">IF(ISBLANK(A80),"",C80)</f>
+        <v> SOV_refugees_and_refugees_desc:0 "Die [SOV.GetNameDef] befindet sich in einer katastrophalen Lage: Nach dem Ansturm der [GER.GetAdjective] Invasion und dem Verlust ihrer westlichen Gebiete sind sie nun mit ständigen deutschen Bombenangriffen und einem allgemeinen Zustand der Verwirrung konfrontiert. Wir können diese Situation nutzen, um einen Aufruf an die wachsende Zahl von Flüchtlingen und Deserteuren zu starten, sich uns anzuschließen und sich hier niederzulassen..."</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v>#they "hand"</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v>""</v>
+        <v> #they hand over control over economic policy and oil reserves to us, while leaving them politically mostly independent. They will serve as good buffer state, and as a buffer our oil supplies. We will even be so gracious as to protect them from any attack! ""</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v/>
+        <v> #they hand over control over economic policy and oil reserves to us, while leaving them politically mostly independent. They will serve as good buffer state, and as a buffer our oil supplies. We will even be so gracious as to protect them from any attack! ""</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
